--- a/biology/Médecine/Albert_Crémieux_(médecin)/Albert_Crémieux_(médecin).xlsx
+++ b/biology/Médecine/Albert_Crémieux_(médecin)/Albert_Crémieux_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
+          <t>Albert_Crémieux_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Crémieux, né le 18 mai 1895 à Marseille et mort le 24 août 1963 dans la même ville, est un médecin français, professeur de Neuropsychiatrie à la Faculté de médecine de Marseille, spécialiste en psychiatrie infantile.
 Membre titulaire de la société médico-psychologique et de L'Évolution psychiatrique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
+          <t>Albert_Crémieux_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,23 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Albert Ernest Moïse Crémieux naît à Marseille (Bouches-du-Rhône) le 18 mai 1895. Il est le fils d'Édouard Salomon Crémieux[1] et d'Edith Adrienne Sarah Esther Padova, dite Édith Crémieux[2]. Édith Crémieux est née le 30 janvier 1870, à Marseille[3]. Il a un frère, Henri Gustave Élie[4], né en 1896.
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Ernest Moïse Crémieux naît à Marseille (Bouches-du-Rhône) le 18 mai 1895. Il est le fils d'Édouard Salomon Crémieux et d'Edith Adrienne Sarah Esther Padova, dite Édith Crémieux. Édith Crémieux est née le 30 janvier 1870, à Marseille. Il a un frère, Henri Gustave Élie, né en 1896.
 Albert fait ses études secondaires au lycée Thiers, où il eut pour condisciples notamment Marcel Pagnol et Marcel Brion.
-Carrière professionnelle
-Albert Crémieux est interne des hôpitaux en 1920, docteur en médecine en 1922[5]. Il est chef de clinique à la faculté de médecine en psychiatrie.
-Les deux Guerres mondiales
-Albert Crémieux combat pendant la Grande Guerre comme infirmier sur le front d'Orient puis médecin de bataillon au 54e régiment d'infanterie.
-Il est de nouveau mobilisé en 1939 et fait la campagne de France en 1940. Il est membre de la Légion française des combattants.
-En octobre 1942, il est rapporteur du sujet de psychiatrie sur l'anorexie mentale au Congrès de Montpellier.
-Déportation
-Arrêté par la Gestapo comme Juif le 11 avril 1944, Albert Crémieux est déporté de Drancy vers Auschwitz, par le convoi n° 72, en date du 29 avril 1944, avec ses parents Édouard et Édith, qui seront assassinés tous les deux à leur arrivée à Auschwitz. Albert sera ensuite transféré à Buchenwald, d'où il est libéré en 1945, un an jour pour jour après son arrestation.
-Retour de déportation
-De retour de déportation, il reprend ses activités professionnelles.
-Crémieux avait été chargé de cours d'hygiène mentale à la Faculté de médecine de Marseille dans l'entre-deux-guerres; après guerre, il y enseigne la neuropsychiatrie et la prophylaxie mentale. Rapporteur au Congrès de Londres en 1948 (L'Agressivité de l'enfant), associé à un rapport sur le trouble du caractère chez l'enfant au premier Congrès mondial de psychiatrie à Paris en 1950.
-En 1952, il est reçu au concours d'agrégation de neurologie et psychiatrie. Crémieux devient ainsi professeur de neuropsychiatrie à la Faculté de médecine de Marseille.
-On lui doit plusieurs importantes publications sur la psychopathologie infantile (voir bibliographie ci-dessous). En 1958, il succède dans la chaire de Clinique de Neurologie et de Psychiatrie au professeur Poursines[6]
-Il meurt à Marseille le 24 août 1963.
 </t>
         </is>
       </c>
@@ -541,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
+          <t>Albert_Crémieux_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +559,166 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Crémieux est interne des hôpitaux en 1920, docteur en médecine en 1922. Il est chef de clinique à la faculté de médecine en psychiatrie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albert_Crémieux_(médecin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les deux Guerres mondiales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Crémieux combat pendant la Grande Guerre comme infirmier sur le front d'Orient puis médecin de bataillon au 54e régiment d'infanterie.
+Il est de nouveau mobilisé en 1939 et fait la campagne de France en 1940. Il est membre de la Légion française des combattants.
+En octobre 1942, il est rapporteur du sujet de psychiatrie sur l'anorexie mentale au Congrès de Montpellier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert_Crémieux_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Déportation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrêté par la Gestapo comme Juif le 11 avril 1944, Albert Crémieux est déporté de Drancy vers Auschwitz, par le convoi n° 72, en date du 29 avril 1944, avec ses parents Édouard et Édith, qui seront assassinés tous les deux à leur arrivée à Auschwitz. Albert sera ensuite transféré à Buchenwald, d'où il est libéré en 1945, un an jour pour jour après son arrestation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albert_Crémieux_(médecin)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Retour de déportation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De retour de déportation, il reprend ses activités professionnelles.
+Crémieux avait été chargé de cours d'hygiène mentale à la Faculté de médecine de Marseille dans l'entre-deux-guerres; après guerre, il y enseigne la neuropsychiatrie et la prophylaxie mentale. Rapporteur au Congrès de Londres en 1948 (L'Agressivité de l'enfant), associé à un rapport sur le trouble du caractère chez l'enfant au premier Congrès mondial de psychiatrie à Paris en 1950.
+En 1952, il est reçu au concours d'agrégation de neurologie et psychiatrie. Crémieux devient ainsi professeur de neuropsychiatrie à la Faculté de médecine de Marseille.
+On lui doit plusieurs importantes publications sur la psychopathologie infantile (voir bibliographie ci-dessous). En 1958, il succède dans la chaire de Clinique de Neurologie et de Psychiatrie au professeur Poursines
+Il meurt à Marseille le 24 août 1963.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albert_Crémieux_(médecin)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Albert Crémieux est décoré de la croix de guerre 1914-1918, nommé chevalier de la Ordre national de la Légion d'honneur le 13 décembre 1938 et promu officier du même ordre en mai 1951.
  Croix de guerre 1914-1918
@@ -568,31 +727,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Albert_Crémieux_(médecin)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Albert_Cr%C3%A9mieux_(m%C3%A9decin)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Un prix Albert-Crémieux d'un montant de 50 000 francs a été créé en 1986. Il récompense l'auteur d'un travail de recherche clinique ou biologique une année sur deux en psychiatrie et l'autre année en neurologie.
 </t>
